--- a/2.Inventario/Seguimiento_IngresoDotacionesInventarioICBF.xlsx
+++ b/2.Inventario/Seguimiento_IngresoDotacionesInventarioICBF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\2.Inventario\Info.RegionalesIngresoInventario2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\2.Inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A610CA-A173-49F5-9A9F-93E1177F0898}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A25ACC-6D58-4C6D-84B3-F883FE56E799}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="DOTACIONES 2018" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'DOTACIONES 2016-2017'!$A$1:$H$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'DOTACIONES 2016-2017'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'DOTACIONES 2018'!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="123">
   <si>
     <t xml:space="preserve">Amazonas </t>
   </si>
@@ -267,9 +267,6 @@
 al 26 de noviembre de 2018</t>
   </si>
   <si>
-    <t>De los clontratos pendientes de ingreso, Cantidad de Contratos con Elementos Devolutivos</t>
-  </si>
-  <si>
     <t>Cantidad de Contratos con Elementos Devolutivos Ingresados
 al inventario al 31 diciembre de 2018</t>
   </si>
@@ -394,9 +391,6 @@
     <t>Quede pendiente un pequeno saldo para  ingreso de un contrato de 2018</t>
   </si>
   <si>
-    <t>Solicita información adicional, pidén las resoluciones de asignación de dotación</t>
-  </si>
-  <si>
     <t>Información Parcial</t>
   </si>
   <si>
@@ -406,8 +400,20 @@
     <t>100% ingresado</t>
   </si>
   <si>
+    <t>No ha reportado</t>
+  </si>
+  <si>
+    <t>De los contratos pendientes de ingreso, Cantidad de Contratos con Elementos Devolutivos</t>
+  </si>
+  <si>
+    <t>PORCENTAJE DE AVANCE Corte 22 febrero de 2019</t>
+  </si>
+  <si>
+    <t>Se les brindó orientaciones adicionales para generar el reporte. Soporte en archivo Casanare_OrientacionReporteIngresoInventario.pdf  de la carpeta 1.AsistenciaTecnica</t>
+  </si>
+  <si>
     <t>Existen variables que han dificultado el ingreso de las dotaciones como: 
-1) El aplicativo SEVEN no esta activo todos los dias del mes. 
+1) El aplicativo SEVEN no esta activo todos los días del mes. 
 2) Revisadas las carpetas se encuentra que la validación financiera muchas veces no es coherente con los valores tanto de las facturas como del Plan de distribucion por lo que hay que devolver nuevamente las carpetas, situacion que a la fecha existen carpetas que no hay sido devueltas por los CZ al almacén con las correciones. 
 3) La directriz de Sede Nacional sobre ingresar unicamente los elementos devolutivos se realizó al finalizar el mes de diciembre, por lo tanto antes se estaba ingresando todos los bienes (consumo, devolutivos).
 4) Falta de tiempo de los Supervisores por las contrataciones a realizar de las diferentes modalidades.</t>
@@ -695,12 +701,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -813,17 +820,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,7 +872,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -921,10 +920,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -943,14 +938,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="40% - Énfasis3" xfId="1" builtinId="39"/>
     <cellStyle name="40% - Énfasis6" xfId="2" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1746,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:H41"/>
+  <dimension ref="A6:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1759,28 +1779,29 @@
     <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="62.140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="26.85546875" style="27" customWidth="1"/>
+    <col min="7" max="8" width="27.28515625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="62.140625" style="83" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="85" t="s">
+    <row r="6" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-    </row>
-    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.2">
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="79"/>
+    </row>
+    <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>46</v>
@@ -1792,16 +1813,19 @@
         <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>1</v>
       </c>
@@ -1818,11 +1842,14 @@
         <f>+C8-D8</f>
         <v>5</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
         <v>2</v>
       </c>
@@ -1839,15 +1866,19 @@
         <f t="shared" ref="E9:E40" si="0">+C9-D9</f>
         <v>92</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>18</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <v>15</v>
       </c>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H9" s="82">
+        <f>G9/F9</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>3</v>
       </c>
@@ -1864,11 +1895,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="84"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
         <v>4</v>
       </c>
@@ -1885,17 +1917,21 @@
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <v>201</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>0</v>
       </c>
-      <c r="H11" s="43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H11" s="82">
+        <f t="shared" ref="H10:H40" si="1">G11/F11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>5</v>
       </c>
@@ -1912,15 +1948,19 @@
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="38">
         <v>434</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>56</v>
       </c>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H12" s="82">
+        <f t="shared" si="1"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="I12" s="85"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>6</v>
       </c>
@@ -1937,11 +1977,12 @@
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="84"/>
+    </row>
+    <row r="14" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>7</v>
       </c>
@@ -1958,17 +1999,21 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="38">
         <v>57</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <v>47</v>
       </c>
-      <c r="H14" s="41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H14" s="82">
+        <f t="shared" si="1"/>
+        <v>0.82456140350877194</v>
+      </c>
+      <c r="I14" s="86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>8</v>
       </c>
@@ -1985,15 +2030,19 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="38">
         <v>13</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <v>27</v>
       </c>
-      <c r="H15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H15" s="82">
+        <f t="shared" si="1"/>
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="I15" s="84"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>9</v>
       </c>
@@ -2010,36 +2059,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="73">
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="69">
         <v>10</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="71">
         <v>22</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="71">
         <v>28</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="72">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>11</v>
       </c>
@@ -2056,17 +2107,21 @@
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="38">
         <v>140</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <v>2</v>
       </c>
-      <c r="H18" s="58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H18" s="82">
+        <f t="shared" si="1"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>12</v>
       </c>
@@ -2083,34 +2138,36 @@
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="73">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="84"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="69">
         <v>13</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="71">
         <v>132</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="71">
         <v>48</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="72">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>14</v>
       </c>
@@ -2120,22 +2177,26 @@
       <c r="C21" s="37">
         <v>132</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="40">
         <v>8</v>
       </c>
       <c r="E21" s="38">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>34</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <v>96</v>
       </c>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H21" s="82">
+        <f t="shared" si="1"/>
+        <v>2.8235294117647061</v>
+      </c>
+      <c r="I21" s="85"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>15</v>
       </c>
@@ -2152,11 +2213,12 @@
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="40"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="84"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>16</v>
       </c>
@@ -2173,11 +2235,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="84"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>17</v>
       </c>
@@ -2194,11 +2257,12 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="84"/>
+    </row>
+    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <v>18</v>
       </c>
@@ -2215,15 +2279,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39">
+      <c r="F25" s="38"/>
+      <c r="G25" s="38">
         <v>9</v>
       </c>
-      <c r="H25" s="58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H25" s="82"/>
+      <c r="I25" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>19</v>
       </c>
@@ -2240,15 +2305,19 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="38">
         <v>82</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="38">
         <v>68</v>
       </c>
-      <c r="H26" s="43"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H26" s="82">
+        <f t="shared" si="1"/>
+        <v>0.82926829268292679</v>
+      </c>
+      <c r="I26" s="85"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>20</v>
       </c>
@@ -2265,11 +2334,12 @@
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="84"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>21</v>
       </c>
@@ -2286,11 +2356,12 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="40"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="84"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>22</v>
       </c>
@@ -2307,11 +2378,12 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="84"/>
+    </row>
+    <row r="30" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
         <v>23</v>
       </c>
@@ -2328,17 +2400,21 @@
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="38">
         <v>61</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="38">
         <v>70</v>
       </c>
-      <c r="H30" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H30" s="82">
+        <f t="shared" si="1"/>
+        <v>1.1475409836065573</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <v>24</v>
       </c>
@@ -2355,15 +2431,19 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="38">
         <v>8</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="38">
         <v>28</v>
       </c>
-      <c r="H31" s="43"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H31" s="82">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="I31" s="85"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>25</v>
       </c>
@@ -2380,13 +2460,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="35">
         <v>26</v>
       </c>
@@ -2403,15 +2484,19 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="38">
         <v>58</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="38">
         <v>0</v>
       </c>
-      <c r="H33" s="44"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H33" s="82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>27</v>
       </c>
@@ -2428,15 +2513,19 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="38">
         <v>5</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="38">
         <v>5</v>
       </c>
-      <c r="H34" s="40"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H34" s="82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="84"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>28</v>
       </c>
@@ -2453,11 +2542,12 @@
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="40"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="84"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="35">
         <v>29</v>
       </c>
@@ -2474,15 +2564,19 @@
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="38">
         <v>142</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="38">
         <v>7</v>
       </c>
-      <c r="H36" s="61"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H36" s="82">
+        <f t="shared" si="1"/>
+        <v>4.9295774647887321E-2</v>
+      </c>
+      <c r="I36" s="88"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
         <v>30</v>
       </c>
@@ -2499,15 +2593,19 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="38">
         <v>52</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="38">
         <v>71</v>
       </c>
-      <c r="H37" s="40"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H37" s="82">
+        <f t="shared" si="1"/>
+        <v>1.3653846153846154</v>
+      </c>
+      <c r="I37" s="84"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="35">
         <v>31</v>
       </c>
@@ -2524,15 +2622,19 @@
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="38">
         <v>20</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="38">
         <v>52</v>
       </c>
-      <c r="H38" s="43"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H38" s="82">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="I38" s="85"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>32</v>
       </c>
@@ -2549,11 +2651,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="40"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="84"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="35">
         <v>33</v>
       </c>
@@ -2570,11 +2673,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="43"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="85"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
@@ -2583,22 +2687,23 @@
         <v>4608</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" ref="D41:G41" si="1">SUM(D8:D40)</f>
+        <f t="shared" ref="D41:G41" si="2">SUM(D8:D40)</f>
         <v>1234</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3374</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1325</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>553</v>
       </c>
       <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2638,18 +2743,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2657,7 +2762,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>35</v>
@@ -2666,7 +2771,7 @@
         <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>72</v>
@@ -2694,7 +2799,7 @@
       <c r="C8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="52" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="37">
@@ -2706,10 +2811,10 @@
       <c r="G8" s="37">
         <v>1</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="54">
         <v>141965000</v>
       </c>
       <c r="J8" s="38">
@@ -2763,7 +2868,7 @@
         <v>95</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -2777,20 +2882,20 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45">
+      <c r="A11" s="42">
         <v>4</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="46"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="47"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="19">
         <v>165574720</v>
       </c>
@@ -2804,52 +2909,52 @@
         <v>43</v>
       </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="55" t="s">
-        <v>83</v>
+      <c r="D12" s="52" t="s">
+        <v>82</v>
       </c>
       <c r="E12" s="37">
         <v>300</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="37">
         <v>1</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="54">
+        <v>283945500</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="45">
+        <v>6</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="57">
-        <v>283945500</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48">
-        <v>6</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="51">
+      <c r="C13" s="46"/>
+      <c r="D13" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="48">
         <v>2578</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53">
+      <c r="F13" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50">
         <v>286569752</v>
       </c>
-      <c r="J13" s="54"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -2866,7 +2971,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -2880,7 +2985,7 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45">
+      <c r="A15" s="42">
         <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -2889,14 +2994,14 @@
       <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="43" t="s">
         <v>58</v>
       </c>
       <c r="E15" s="17">
         <v>300</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="17">
         <v>1</v>
@@ -2917,328 +3022,328 @@
       <c r="C16" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="52" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="37">
         <v>60</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" s="37">
         <v>1</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="57">
+      <c r="H16" s="57"/>
+      <c r="I16" s="54">
         <v>85179000</v>
       </c>
       <c r="J16" s="38"/>
-      <c r="K16" s="43" t="s">
-        <v>96</v>
+      <c r="K16" s="41" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48">
+      <c r="A17" s="45">
         <v>10</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="48"/>
+      <c r="F17" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="48">
         <v>1</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="53">
+      <c r="H17" s="56"/>
+      <c r="I17" s="50">
         <v>33500000</v>
       </c>
-      <c r="J17" s="54"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48">
+      <c r="A18" s="45">
         <v>11</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="76">
+        <v>180</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="76">
+        <v>1</v>
+      </c>
+      <c r="H18" s="77"/>
+      <c r="I18" s="58">
+        <v>359654300</v>
+      </c>
+      <c r="J18" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="45">
+        <v>12</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="76">
+        <v>125</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="76">
+        <v>1</v>
+      </c>
+      <c r="H19" s="77"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45">
+        <v>13</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="76">
+        <v>75</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="76">
+        <v>1</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="45">
+        <v>14</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="81" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="82">
-        <v>180</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="82">
-        <v>1</v>
-      </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="62">
-        <v>359654300</v>
-      </c>
-      <c r="J18" s="84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48">
-        <v>12</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="82">
-        <v>125</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="82">
-        <v>1</v>
-      </c>
-      <c r="H19" s="83"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48">
-        <v>13</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="82">
-        <v>75</v>
-      </c>
-      <c r="F20" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="82">
-        <v>1</v>
-      </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48">
-        <v>14</v>
-      </c>
-      <c r="B21" s="37" t="s">
+      <c r="C21" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="D21" s="37" t="s">
         <v>101</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>102</v>
       </c>
       <c r="E21" s="37">
         <v>745</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="37">
         <v>1</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="59">
         <v>66262017330</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="58">
         <v>15045406</v>
       </c>
-      <c r="J21" s="64">
+      <c r="J21" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48">
+      <c r="A22" s="45">
         <v>15</v>
       </c>
       <c r="B22" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="D22" s="37" t="s">
         <v>101</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>102</v>
       </c>
       <c r="E22" s="37">
         <v>270</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="37">
         <v>1</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="59">
         <v>66262017335</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="58">
         <v>1292340</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
+      <c r="A23" s="45">
         <v>16</v>
       </c>
       <c r="B23" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>101</v>
-      </c>
       <c r="D23" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="37">
         <v>4693</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="59">
         <v>66262018108</v>
       </c>
-      <c r="I23" s="62">
+      <c r="I23" s="58">
         <v>32000000</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48">
+      <c r="A24" s="45">
         <v>17</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>106</v>
       </c>
       <c r="E24" s="37">
         <v>200</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="37">
         <v>1</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="59">
         <v>66262017267</v>
       </c>
-      <c r="I24" s="62">
+      <c r="I24" s="58">
         <v>7261000</v>
       </c>
-      <c r="J24" s="64">
+      <c r="J24" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48">
+      <c r="A25" s="45">
         <v>18</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="37">
         <v>80</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="37">
         <v>1</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="59">
         <v>66262017270</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="58">
         <v>6666977</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48">
+      <c r="A26" s="45">
         <v>19</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>108</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>109</v>
       </c>
       <c r="E26" s="37">
         <v>1240</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="65">
+        <v>102</v>
+      </c>
+      <c r="G26" s="61">
         <v>1</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="59">
         <v>66262017327</v>
       </c>
-      <c r="I26" s="62">
+      <c r="I26" s="58">
         <v>12965360</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="60">
         <v>0</v>
       </c>
     </row>
@@ -3247,7 +3352,7 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="33">
         <f>SUM(E8:E26)</f>
@@ -3269,28 +3374,28 @@
       <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="66">
+      <c r="A28" s="62">
         <v>20</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="67" t="s">
+      <c r="C28" s="63"/>
+      <c r="D28" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="61">
         <v>1</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70">
+      <c r="H28" s="65"/>
+      <c r="I28" s="66">
         <v>45000000</v>
       </c>
-      <c r="J28" s="71">
+      <c r="J28" s="67">
         <v>0</v>
       </c>
     </row>
@@ -3302,8 +3407,8 @@
         <v>43</v>
       </c>
       <c r="C29" s="36"/>
-      <c r="D29" s="55" t="s">
-        <v>76</v>
+      <c r="D29" s="52" t="s">
+        <v>75</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="36" t="s">
@@ -3312,38 +3417,38 @@
       <c r="G29" s="37">
         <v>1</v>
       </c>
-      <c r="H29" s="60"/>
-      <c r="I29" s="57">
+      <c r="H29" s="57"/>
+      <c r="I29" s="54">
         <v>25000000</v>
       </c>
       <c r="J29" s="38"/>
-      <c r="K29" s="43" t="s">
-        <v>96</v>
+      <c r="K29" s="41" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45">
+      <c r="A30" s="42">
         <v>22</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50" t="s">
+      <c r="C30" s="46"/>
+      <c r="D30" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="49" t="s">
+      <c r="E30" s="48"/>
+      <c r="F30" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="48">
         <v>1</v>
       </c>
-      <c r="H30" s="59"/>
-      <c r="I30" s="53">
+      <c r="H30" s="56"/>
+      <c r="I30" s="50">
         <v>25000000</v>
       </c>
-      <c r="J30" s="54"/>
+      <c r="J30" s="51"/>
     </row>
     <row r="31" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
@@ -3353,21 +3458,21 @@
         <v>67</v>
       </c>
       <c r="C31" s="36"/>
-      <c r="D31" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="67" t="s">
+      <c r="D31" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="61"/>
+      <c r="F31" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="65">
+      <c r="G31" s="61">
         <v>1</v>
       </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="70">
+      <c r="H31" s="65"/>
+      <c r="I31" s="66">
         <v>52000000</v>
       </c>
-      <c r="J31" s="71">
+      <c r="J31" s="67">
         <v>0</v>
       </c>
     </row>

--- a/2.Inventario/Seguimiento_IngresoDotacionesInventarioICBF.xlsx
+++ b/2.Inventario/Seguimiento_IngresoDotacionesInventarioICBF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\2.Inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A25ACC-6D58-4C6D-84B3-F883FE56E799}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E27C60-130B-4753-A103-7A997B39AF6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="DOTACIONES 2018" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'DOTACIONES 2016-2017'!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'DOTACIONES 2016-2017'!$A$1:$K$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'DOTACIONES 2018'!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
   <si>
     <t xml:space="preserve">Amazonas </t>
   </si>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t>Información Parcial</t>
-  </si>
-  <si>
-    <t>Información enviada por correo electronico</t>
   </si>
   <si>
     <t>100% ingresado</t>
@@ -417,6 +414,28 @@
 2) Revisadas las carpetas se encuentra que la validación financiera muchas veces no es coherente con los valores tanto de las facturas como del Plan de distribucion por lo que hay que devolver nuevamente las carpetas, situacion que a la fecha existen carpetas que no hay sido devueltas por los CZ al almacén con las correciones. 
 3) La directriz de Sede Nacional sobre ingresar unicamente los elementos devolutivos se realizó al finalizar el mes de diciembre, por lo tanto antes se estaba ingresando todos los bienes (consumo, devolutivos).
 4) Falta de tiempo de los Supervisores por las contrataciones a realizar de las diferentes modalidades.</t>
+  </si>
+  <si>
+    <t>De los contratos pendientes de ingreso, Cantidad de Contratos con Elementos Devolutivos: No se puede
+decir una cifra exacta, pues todavía faltan 10 contratos por revisar, 18 Contratos devueltos, pero hay 15
+pendientes por ingresar con Devolutivos</t>
+  </si>
+  <si>
+    <t>No se puede
+decir una cifra exacta, pues todavía faltan 10 contratos por revisar y 18 Contratos fueron devueltos por el almacenista a Primera Infancia</t>
+  </si>
+  <si>
+    <t>Revisados y listos para ingresar al Aplicativo
+SEVEN: 201</t>
+  </si>
+  <si>
+    <t>PORCENTAJE DE AVANCE (en contratos)
+Corte 26 Noviembre de 2018</t>
+  </si>
+  <si>
+    <t>PORCENTAJE DE AVANCE 
+(por recursos)
+Corte 26 Noviembre de 2019</t>
   </si>
 </sst>
 </file>
@@ -426,7 +445,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,8 +512,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +566,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +745,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -716,9 +754,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,9 +852,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,9 +949,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -938,32 +967,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -995,7 +1045,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -1169,13 +1219,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1766,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:I41"/>
+  <dimension ref="A6:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1779,57 +1829,66 @@
     <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="27" customWidth="1"/>
-    <col min="7" max="8" width="27.28515625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="62.140625" style="83" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="2"/>
+    <col min="6" max="7" width="21.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="26" customWidth="1"/>
+    <col min="9" max="10" width="27.28515625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="62.140625" style="81" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="80" t="s">
+    <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="79"/>
-    </row>
-    <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -1842,47 +1901,60 @@
         <f>+C8-D8</f>
         <v>5</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="35">
+      <c r="F8" s="91">
+        <f>D8/C8</f>
+        <v>0.375</v>
+      </c>
+      <c r="G8" s="92">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
         <v>2</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>357</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>265</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <f t="shared" ref="E9:E40" si="0">+C9-D9</f>
         <v>92</v>
       </c>
-      <c r="F9" s="38">
-        <v>18</v>
-      </c>
-      <c r="G9" s="38">
-        <v>15</v>
-      </c>
-      <c r="H9" s="82">
-        <f>G9/F9</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="F9" s="91">
+        <f t="shared" ref="F9:F41" si="1">D9/C9</f>
+        <v>0.74229691876750703</v>
+      </c>
+      <c r="G9" s="92">
+        <v>33.6</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="37">
+        <v>0</v>
+      </c>
+      <c r="J9" s="77"/>
+      <c r="K9" s="83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1">
@@ -1895,76 +1967,94 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="84"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
+      <c r="F10" s="91">
+        <f t="shared" si="1"/>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="G10" s="92">
+        <v>113.19999999999999</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="34">
         <v>4</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>238</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>27</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="F11" s="38">
-        <v>201</v>
-      </c>
-      <c r="G11" s="38">
+      <c r="F11" s="91">
+        <f t="shared" si="1"/>
+        <v>0.1134453781512605</v>
+      </c>
+      <c r="G11" s="92">
+        <v>5.4</v>
+      </c>
+      <c r="H11" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="37">
         <v>0</v>
       </c>
-      <c r="H11" s="82">
-        <f t="shared" ref="H10:H40" si="1">G11/F11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="J11" s="77"/>
+      <c r="K11" s="84"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
         <v>5</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>490</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>22</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="91">
+        <f t="shared" si="1"/>
+        <v>4.4897959183673466E-2</v>
+      </c>
+      <c r="G12" s="92">
+        <v>4.3</v>
+      </c>
+      <c r="H12" s="37">
         <v>434</v>
       </c>
-      <c r="G12" s="38">
+      <c r="I12" s="37">
         <v>56</v>
       </c>
-      <c r="H12" s="82">
-        <f t="shared" si="1"/>
+      <c r="J12" s="77">
+        <f t="shared" ref="J12:J38" si="2">I12/H12</f>
         <v>0.12903225806451613</v>
       </c>
-      <c r="I12" s="85"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="K12" s="84"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
@@ -1977,155 +2067,197 @@
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="84"/>
-    </row>
-    <row r="14" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35">
+      <c r="F13" s="91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="92">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="82"/>
+    </row>
+    <row r="14" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34">
         <v>7</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>204</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>123</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="91">
+        <f t="shared" si="1"/>
+        <v>0.6029411764705882</v>
+      </c>
+      <c r="G14" s="92">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H14" s="37">
         <v>57</v>
       </c>
-      <c r="G14" s="38">
+      <c r="I14" s="37">
         <v>47</v>
       </c>
-      <c r="H14" s="82">
-        <f t="shared" si="1"/>
+      <c r="J14" s="77">
+        <f t="shared" si="2"/>
         <v>0.82456140350877194</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="K14" s="85" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
         <v>8</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>65</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>40</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="91">
+        <f t="shared" si="1"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="G15" s="92">
+        <v>36.1</v>
+      </c>
+      <c r="H15" s="37">
         <v>13</v>
       </c>
-      <c r="G15" s="38">
+      <c r="I15" s="37">
         <v>27</v>
       </c>
-      <c r="H15" s="82">
-        <f t="shared" si="1"/>
+      <c r="J15" s="77">
+        <f t="shared" si="2"/>
         <v>2.0769230769230771</v>
       </c>
-      <c r="I15" s="84"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+      <c r="K15" s="82"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
         <v>9</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>68</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>68</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="69">
+      <c r="F16" s="91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="92">
+        <v>114.1</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="67">
         <v>10</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="69">
         <v>22</v>
       </c>
-      <c r="D17" s="71">
+      <c r="D17" s="69">
         <v>28</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="70">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="F17" s="91">
+        <f t="shared" si="1"/>
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="G17" s="92">
+        <v>117.6</v>
+      </c>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34">
         <v>11</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>251</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>16</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="91">
+        <f t="shared" si="1"/>
+        <v>6.3745019920318724E-2</v>
+      </c>
+      <c r="G18" s="92">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H18" s="37">
         <v>140</v>
       </c>
-      <c r="G18" s="38">
+      <c r="I18" s="37">
         <v>2</v>
       </c>
-      <c r="H18" s="82">
-        <f t="shared" si="1"/>
+      <c r="J18" s="77">
+        <f t="shared" si="2"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="I18" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="K18" s="83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1">
@@ -2138,69 +2270,90 @@
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="84"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="69">
+      <c r="F19" s="91">
+        <f t="shared" si="1"/>
+        <v>4.6728971962616821E-2</v>
+      </c>
+      <c r="G19" s="92">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="82"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="67">
         <v>13</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="71">
+      <c r="C20" s="69">
         <v>132</v>
       </c>
-      <c r="D20" s="71">
+      <c r="D20" s="69">
         <v>48</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="70">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="87" t="s">
+      <c r="F20" s="91">
+        <f t="shared" si="1"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="G20" s="92">
+        <v>14.899999999999999</v>
+      </c>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="87" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="35">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="34">
         <v>14</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>132</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="38">
         <v>8</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="91">
+        <f t="shared" si="1"/>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="G21" s="92">
+        <v>15.8</v>
+      </c>
+      <c r="H21" s="37">
         <v>34</v>
       </c>
-      <c r="G21" s="38">
+      <c r="I21" s="37">
         <v>96</v>
       </c>
-      <c r="H21" s="82">
-        <f t="shared" si="1"/>
+      <c r="J21" s="77">
+        <f t="shared" si="2"/>
         <v>2.8235294117647061</v>
       </c>
-      <c r="I21" s="85"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="K21" s="84"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>15</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1">
@@ -2213,16 +2366,23 @@
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="84"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="F22" s="91">
+        <f t="shared" si="1"/>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G22" s="92">
+        <v>12.1</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="82"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>16</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="1">
@@ -2235,16 +2395,23 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="84"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="F23" s="91">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="92">
+        <v>31.5</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="82"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>17</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="1">
@@ -2257,71 +2424,92 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="84"/>
-    </row>
-    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="35">
+      <c r="F24" s="91">
+        <f t="shared" si="1"/>
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="G24" s="92">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="82"/>
+    </row>
+    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="34">
         <v>18</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>9</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>8</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="37">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38">
+      <c r="F25" s="91">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G25" s="92">
+        <v>81.3</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37">
         <v>9</v>
       </c>
-      <c r="H25" s="82"/>
-      <c r="I25" s="39" t="s">
+      <c r="J25" s="77"/>
+      <c r="K25" s="83" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
         <v>19</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>165</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>68</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="37">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="91">
+        <f t="shared" si="1"/>
+        <v>0.41212121212121211</v>
+      </c>
+      <c r="G26" s="92">
+        <v>26.6</v>
+      </c>
+      <c r="H26" s="37">
         <v>82</v>
       </c>
-      <c r="G26" s="38">
+      <c r="I26" s="37">
         <v>68</v>
       </c>
-      <c r="H26" s="82">
-        <f t="shared" si="1"/>
+      <c r="J26" s="77">
+        <f t="shared" si="2"/>
         <v>0.82926829268292679</v>
       </c>
-      <c r="I26" s="85"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="K26" s="84"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <v>20</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="1">
@@ -2334,16 +2522,23 @@
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="84"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="F27" s="91">
+        <f t="shared" si="1"/>
+        <v>0.18852459016393441</v>
+      </c>
+      <c r="G27" s="92">
+        <v>11.4</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="82"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <v>21</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="1">
@@ -2356,16 +2551,23 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="84"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+      <c r="F28" s="91">
+        <f t="shared" si="1"/>
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="G28" s="92">
+        <v>22.8</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="82"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="1">
@@ -2378,158 +2580,200 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="84"/>
-    </row>
-    <row r="30" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="35">
+      <c r="F29" s="91">
+        <f t="shared" si="1"/>
+        <v>0.35643564356435642</v>
+      </c>
+      <c r="G29" s="92">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="82"/>
+    </row>
+    <row r="30" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="34">
         <v>23</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>254</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>38</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="37">
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="91">
+        <f t="shared" si="1"/>
+        <v>0.14960629921259844</v>
+      </c>
+      <c r="G30" s="92">
+        <v>14.7</v>
+      </c>
+      <c r="H30" s="37">
         <v>61</v>
       </c>
-      <c r="G30" s="38">
+      <c r="I30" s="37">
         <v>70</v>
       </c>
-      <c r="H30" s="82">
-        <f t="shared" si="1"/>
+      <c r="J30" s="77">
+        <f t="shared" si="2"/>
         <v>1.1475409836065573</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="K30" s="88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="35">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="34">
         <v>24</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>28</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>20</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="37">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="91">
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G31" s="92">
+        <v>99.3</v>
+      </c>
+      <c r="H31" s="37">
         <v>8</v>
       </c>
-      <c r="G31" s="38">
+      <c r="I31" s="37">
         <v>28</v>
       </c>
-      <c r="H31" s="82">
-        <f t="shared" si="1"/>
+      <c r="J31" s="77">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="I31" s="85"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="K31" s="84"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="34">
         <v>25</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="36">
         <v>61</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>49</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="88" t="s">
+      <c r="F32" s="91">
+        <f t="shared" si="1"/>
+        <v>0.80327868852459017</v>
+      </c>
+      <c r="G32" s="92">
+        <v>77</v>
+      </c>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="89" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="35">
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="34">
         <v>26</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>58</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>8</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="37">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="91">
+        <f t="shared" si="1"/>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="G33" s="92">
+        <v>13.8</v>
+      </c>
+      <c r="H33" s="37">
         <v>58</v>
       </c>
-      <c r="G33" s="38">
+      <c r="I33" s="37">
         <v>0</v>
       </c>
-      <c r="H33" s="82">
+      <c r="J33" s="77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="88"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="34">
+        <v>27</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="36">
+        <v>5</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0</v>
+      </c>
+      <c r="E34" s="37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F34" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="35">
-        <v>27</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="37">
+      <c r="G34" s="92">
+        <v>13.100000000000001</v>
+      </c>
+      <c r="H34" s="37">
         <v>5</v>
       </c>
-      <c r="D34" s="37">
-        <v>0</v>
-      </c>
-      <c r="E34" s="38">
-        <f t="shared" si="0"/>
+      <c r="I34" s="37">
         <v>5</v>
       </c>
-      <c r="F34" s="38">
-        <v>5</v>
-      </c>
-      <c r="G34" s="38">
-        <v>5</v>
-      </c>
-      <c r="H34" s="82">
-        <f t="shared" si="1"/>
+      <c r="J34" s="77">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I34" s="84"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+      <c r="K34" s="82"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <v>28</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="1">
@@ -2542,103 +2786,131 @@
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="84"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="35">
+      <c r="F35" s="91">
+        <f t="shared" si="1"/>
+        <v>8.9743589743589744E-2</v>
+      </c>
+      <c r="G35" s="92">
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="82"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="34">
         <v>29</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="36">
         <v>144</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="36">
         <v>2</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="37">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="91">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G36" s="92">
+        <v>4.5</v>
+      </c>
+      <c r="H36" s="37">
         <v>142</v>
       </c>
-      <c r="G36" s="38">
+      <c r="I36" s="37">
         <v>7</v>
       </c>
-      <c r="H36" s="82">
-        <f t="shared" si="1"/>
+      <c r="J36" s="77">
+        <f t="shared" si="2"/>
         <v>4.9295774647887321E-2</v>
       </c>
-      <c r="I36" s="88"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="35">
+      <c r="K36" s="89"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="34">
         <v>30</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="36">
         <v>133</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="36">
         <v>77</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="37">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="91">
+        <f t="shared" si="1"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="G37" s="92">
         <v>52</v>
       </c>
-      <c r="G37" s="38">
+      <c r="H37" s="37">
+        <v>52</v>
+      </c>
+      <c r="I37" s="37">
         <v>71</v>
       </c>
-      <c r="H37" s="82">
-        <f t="shared" si="1"/>
+      <c r="J37" s="77">
+        <f t="shared" si="2"/>
         <v>1.3653846153846154</v>
       </c>
-      <c r="I37" s="84"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="35">
+      <c r="K37" s="82"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="34">
         <v>31</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="36">
         <v>312</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="36">
         <v>81</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="37">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="91">
+        <f t="shared" si="1"/>
+        <v>0.25961538461538464</v>
+      </c>
+      <c r="G38" s="92">
+        <v>13.4</v>
+      </c>
+      <c r="H38" s="37">
         <v>20</v>
       </c>
-      <c r="G38" s="38">
+      <c r="I38" s="37">
         <v>52</v>
       </c>
-      <c r="H38" s="82">
-        <f t="shared" si="1"/>
+      <c r="J38" s="77">
+        <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="I38" s="85"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
+      <c r="K38" s="84"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>32</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="1">
@@ -2651,63 +2923,82 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="84"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="F39" s="91">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="92">
+        <v>100</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="82"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="34">
         <v>33</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="36">
         <v>11</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="36">
         <v>11</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="85"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="8" t="s">
+      <c r="F40" s="91">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="92">
+        <v>307.39999999999998</v>
+      </c>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="84"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <f>SUM(C8:C40)</f>
         <v>4608</v>
       </c>
-      <c r="D41" s="8">
-        <f t="shared" ref="D41:G41" si="2">SUM(D8:D40)</f>
+      <c r="D41" s="7">
+        <f>SUM(D8:D40)</f>
         <v>1234</v>
       </c>
-      <c r="E41" s="8">
-        <f t="shared" si="2"/>
+      <c r="E41" s="7">
+        <f>SUM(E8:E40)</f>
         <v>3374</v>
       </c>
-      <c r="F41" s="8">
-        <f t="shared" si="2"/>
-        <v>1325</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="2"/>
-        <v>553</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="F41" s="91">
+        <f t="shared" si="1"/>
+        <v>0.2677951388888889</v>
+      </c>
+      <c r="G41" s="91"/>
+      <c r="H41" s="7">
+        <f>SUM(H8:H40)</f>
+        <v>1106</v>
+      </c>
+      <c r="I41" s="7">
+        <f>SUM(I8:I40)</f>
+        <v>538</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2730,7 +3021,7 @@
     <col min="2" max="2" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="26" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="2" hidden="1" customWidth="1"/>
@@ -2743,765 +3034,765 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="26"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="34">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>100</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <v>1</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="52">
         <v>141965000</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="1">
         <v>580</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <v>681447500</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="1">
         <v>95</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>22319775</v>
       </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42">
+      <c r="A11" s="40">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="19">
+      <c r="G11" s="16"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="18">
         <v>165574720</v>
       </c>
-      <c r="J11" s="20"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35">
+      <c r="A12" s="34">
         <v>5</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="52" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>300</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>1</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="52">
         <v>283945500</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="55" t="s">
+      <c r="J12" s="37"/>
+      <c r="K12" s="53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
+      <c r="A13" s="43">
         <v>6</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <v>2578</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50">
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48">
         <v>286569752</v>
       </c>
-      <c r="J13" s="51"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>3338200</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42">
+      <c r="A15" s="40">
         <v>8</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>300</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>1</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19">
+      <c r="H15" s="17"/>
+      <c r="I15" s="18">
         <v>5460000</v>
       </c>
-      <c r="J15" s="20"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>9</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>60</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>1</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="54">
+      <c r="H16" s="55"/>
+      <c r="I16" s="52">
         <v>85179000</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45">
+      <c r="A17" s="43">
         <v>10</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="46" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="46">
         <v>1</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="50">
+      <c r="H17" s="54"/>
+      <c r="I17" s="48">
         <v>33500000</v>
       </c>
-      <c r="J17" s="51"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45">
+      <c r="A18" s="43">
         <v>11</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="73">
         <v>180</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="73">
         <v>1</v>
       </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="58">
+      <c r="H18" s="74"/>
+      <c r="I18" s="56">
         <v>359654300</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45">
+      <c r="A19" s="43">
         <v>12</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="73">
         <v>125</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="73">
         <v>1</v>
       </c>
-      <c r="H19" s="77"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="78">
+      <c r="H19" s="74"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45">
+      <c r="A20" s="43">
         <v>13</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="73">
         <v>75</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="73">
         <v>1</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="78">
+      <c r="H20" s="74"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45">
+      <c r="A21" s="43">
         <v>14</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <v>745</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <v>1</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="57">
         <v>66262017330</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="56">
         <v>15045406</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45">
+      <c r="A22" s="43">
         <v>15</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>270</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>1</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="57">
         <v>66262017335</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="56">
         <v>1292340</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45">
+      <c r="A23" s="43">
         <v>16</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>4693</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>1</v>
       </c>
-      <c r="H23" s="59">
+      <c r="H23" s="57">
         <v>66262018108</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="56">
         <v>32000000</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45">
+      <c r="A24" s="43">
         <v>17</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>200</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <v>1</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="57">
         <v>66262017267</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="56">
         <v>7261000</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45">
+      <c r="A25" s="43">
         <v>18</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <v>80</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="36">
         <v>1</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="57">
         <v>66262017270</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="56">
         <v>6666977</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45">
+      <c r="A26" s="43">
         <v>19</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="36">
         <v>1240</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="59">
         <v>1</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="57">
         <v>66262017327</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="56">
         <v>12965360</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="58">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="31" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="32" t="s">
+    <row r="27" spans="1:11" s="30" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <f>SUM(E8:E26)</f>
         <v>11621</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32">
         <f>SUM(G8:G26)</f>
         <v>17</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="32">
         <f>SUM(H8:H17)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="33">
         <f>SUM(I8:I26)</f>
         <v>2144184830</v>
       </c>
-      <c r="J27" s="30"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62">
+      <c r="A28" s="60">
         <v>20</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="63" t="s">
+      <c r="E28" s="59"/>
+      <c r="F28" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="59">
         <v>1</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66">
+      <c r="H28" s="63"/>
+      <c r="I28" s="64">
         <v>45000000</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35">
+      <c r="A29" s="34">
         <v>21</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="52" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="36"/>
+      <c r="F29" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <v>1</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="54">
+      <c r="H29" s="55"/>
+      <c r="I29" s="52">
         <v>25000000</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="41" t="s">
+      <c r="J29" s="37"/>
+      <c r="K29" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42">
+      <c r="A30" s="40">
         <v>22</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47" t="s">
+      <c r="C30" s="44"/>
+      <c r="D30" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="46" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="46">
         <v>1</v>
       </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="50">
+      <c r="H30" s="54"/>
+      <c r="I30" s="48">
         <v>25000000</v>
       </c>
-      <c r="J30" s="51"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="A31" s="34">
         <v>23</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="52" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="63" t="s">
+      <c r="E31" s="59"/>
+      <c r="F31" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="59">
         <v>1</v>
       </c>
-      <c r="H31" s="65"/>
-      <c r="I31" s="66">
+      <c r="H31" s="63"/>
+      <c r="I31" s="64">
         <v>52000000</v>
       </c>
-      <c r="J31" s="67">
+      <c r="J31" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <f>SUM(G14:G31)</f>
         <v>34</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24">
+      <c r="H32" s="22"/>
+      <c r="I32" s="23">
         <f>SUM(I8:I31)</f>
         <v>4435369660</v>
       </c>
-      <c r="J32" s="25"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="35" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
+      <c r="B35" s="10"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="28"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
+      <c r="B36" s="10"/>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="28"/>
+      <c r="E36" s="27"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B28:J31">

--- a/2.Inventario/Seguimiento_IngresoDotacionesInventarioICBF.xlsx
+++ b/2.Inventario/Seguimiento_IngresoDotacionesInventarioICBF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\2.Inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E27C60-130B-4753-A103-7A997B39AF6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218BDB73-6142-49CD-A147-E2EA19D05BBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -745,7 +745,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -970,50 +970,56 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1818,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1832,21 +1838,21 @@
     <col min="6" max="7" width="21.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="34.7109375" style="26" customWidth="1"/>
     <col min="9" max="10" width="27.28515625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="62.140625" style="81" customWidth="1"/>
+    <col min="11" max="11" width="62.140625" style="79" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
       <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.2">
@@ -1877,7 +1883,7 @@
       <c r="I7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="J7" s="78" t="s">
         <v>119</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -1888,30 +1894,30 @@
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="94">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="94">
         <v>3</v>
       </c>
       <c r="E8" s="3">
         <f>+C8-D8</f>
         <v>5</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="89">
         <f>D8/C8</f>
         <v>0.375</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="90">
         <v>13.200000000000001</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="77"/>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="80" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1932,21 +1938,21 @@
         <f t="shared" ref="E9:E40" si="0">+C9-D9</f>
         <v>92</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="89">
         <f t="shared" ref="F9:F41" si="1">D9/C9</f>
         <v>0.74229691876750703</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="90">
         <v>33.6</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="81" t="s">
         <v>123</v>
       </c>
       <c r="I9" s="37">
         <v>0</v>
       </c>
       <c r="J9" s="77"/>
-      <c r="K9" s="83" t="s">
+      <c r="K9" s="81" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1954,30 +1960,30 @@
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="94">
         <v>44</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="94">
         <v>38</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="89">
         <f t="shared" si="1"/>
         <v>0.86363636363636365</v>
       </c>
-      <c r="G10" s="92">
+      <c r="G10" s="90">
         <v>113.19999999999999</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="77"/>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="80" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1998,21 +2004,21 @@
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="F11" s="91">
+      <c r="F11" s="89">
         <f t="shared" si="1"/>
         <v>0.1134453781512605</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="90">
         <v>5.4</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="81" t="s">
         <v>124</v>
       </c>
       <c r="I11" s="37">
         <v>0</v>
       </c>
       <c r="J11" s="77"/>
-      <c r="K11" s="84"/>
+      <c r="K11" s="82"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
@@ -2031,11 +2037,11 @@
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="89">
         <f t="shared" si="1"/>
         <v>4.4897959183673466E-2</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="90">
         <v>4.3</v>
       </c>
       <c r="H12" s="37">
@@ -2048,36 +2054,36 @@
         <f t="shared" ref="J12:J38" si="2">I12/H12</f>
         <v>0.12903225806451613</v>
       </c>
-      <c r="K12" s="84"/>
+      <c r="K12" s="82"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="94">
         <v>316</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="94">
         <v>0</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
-      <c r="F13" s="91">
+      <c r="F13" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="90">
         <v>0.1</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="77"/>
-      <c r="K13" s="82"/>
+      <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
@@ -2096,11 +2102,11 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F14" s="89">
         <f t="shared" si="1"/>
         <v>0.6029411764705882</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="90">
         <v>38.700000000000003</v>
       </c>
       <c r="H14" s="37">
@@ -2113,7 +2119,7 @@
         <f t="shared" si="2"/>
         <v>0.82456140350877194</v>
       </c>
-      <c r="K14" s="85" t="s">
+      <c r="K14" s="83" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2134,11 +2140,11 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F15" s="91">
+      <c r="F15" s="89">
         <f t="shared" si="1"/>
         <v>0.61538461538461542</v>
       </c>
-      <c r="G15" s="92">
+      <c r="G15" s="90">
         <v>36.1</v>
       </c>
       <c r="H15" s="37">
@@ -2151,7 +2157,7 @@
         <f t="shared" si="2"/>
         <v>2.0769230769230771</v>
       </c>
-      <c r="K15" s="82"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
@@ -2170,48 +2176,48 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="91">
+      <c r="F16" s="89">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="90">
         <v>114.1</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="84" t="s">
+      <c r="K16" s="82" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="67">
+      <c r="A17" s="34">
         <v>10</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="36">
         <v>22</v>
       </c>
-      <c r="D17" s="69">
+      <c r="D17" s="36">
         <v>28</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="37">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="F17" s="91">
+      <c r="F17" s="89">
         <f t="shared" si="1"/>
         <v>1.2727272727272727</v>
       </c>
-      <c r="G17" s="92">
+      <c r="G17" s="90">
         <v>117.6</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
       <c r="J17" s="77"/>
-      <c r="K17" s="86" t="s">
+      <c r="K17" s="84" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2232,11 +2238,11 @@
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="F18" s="91">
+      <c r="F18" s="89">
         <f t="shared" si="1"/>
         <v>6.3745019920318724E-2</v>
       </c>
-      <c r="G18" s="92">
+      <c r="G18" s="90">
         <v>4.9000000000000004</v>
       </c>
       <c r="H18" s="37">
@@ -2249,7 +2255,7 @@
         <f t="shared" si="2"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="K18" s="83" t="s">
+      <c r="K18" s="81" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2257,30 +2263,30 @@
       <c r="A19" s="9">
         <v>12</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="94">
         <v>214</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="94">
         <v>10</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="89">
         <f t="shared" si="1"/>
         <v>4.6728971962616821E-2</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="90">
         <v>3</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="77"/>
-      <c r="K19" s="82"/>
+      <c r="K19" s="80"/>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="67">
@@ -2299,17 +2305,17 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="89">
         <f t="shared" si="1"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="90">
         <v>14.899999999999999</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
       <c r="J20" s="77"/>
-      <c r="K20" s="87" t="s">
+      <c r="K20" s="85" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2330,11 +2336,11 @@
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="89">
         <f t="shared" si="1"/>
         <v>6.0606060606060608E-2</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="90">
         <v>15.8</v>
       </c>
       <c r="H21" s="37">
@@ -2347,96 +2353,96 @@
         <f t="shared" si="2"/>
         <v>2.8235294117647061</v>
       </c>
-      <c r="K21" s="84"/>
+      <c r="K21" s="82"/>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>15</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="94">
         <v>250</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="94">
         <v>61</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="F22" s="91">
+      <c r="F22" s="89">
         <f t="shared" si="1"/>
         <v>0.24399999999999999</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G22" s="90">
         <v>12.1</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="77"/>
-      <c r="K22" s="82"/>
+      <c r="K22" s="80"/>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>16</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="94">
         <v>5</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="94">
         <v>4</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F23" s="89">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G23" s="92">
+      <c r="G23" s="90">
         <v>31.5</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="77"/>
-      <c r="K23" s="82"/>
+      <c r="K23" s="80"/>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>17</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="94">
         <v>68</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="94">
         <v>3</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="89">
         <f t="shared" si="1"/>
         <v>4.4117647058823532E-2</v>
       </c>
-      <c r="G24" s="92">
+      <c r="G24" s="90">
         <v>2.8000000000000003</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="77"/>
-      <c r="K24" s="82"/>
-    </row>
-    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="K24" s="80"/>
+    </row>
+    <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34">
         <v>18</v>
       </c>
@@ -2453,11 +2459,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" s="91">
+      <c r="F25" s="89">
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="90">
         <v>81.3</v>
       </c>
       <c r="H25" s="37"/>
@@ -2465,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="77"/>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="81" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2486,11 +2492,11 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F26" s="91">
+      <c r="F26" s="89">
         <f t="shared" si="1"/>
         <v>0.41212121212121211</v>
       </c>
-      <c r="G26" s="92">
+      <c r="G26" s="90">
         <v>26.6</v>
       </c>
       <c r="H26" s="37">
@@ -2503,94 +2509,94 @@
         <f t="shared" si="2"/>
         <v>0.82926829268292679</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="82"/>
     </row>
     <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="67">
         <v>20</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="69">
         <v>122</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="69">
         <v>23</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="70">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="F27" s="91">
+      <c r="F27" s="89">
         <f t="shared" si="1"/>
         <v>0.18852459016393441</v>
       </c>
-      <c r="G27" s="92">
+      <c r="G27" s="90">
         <v>11.4</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="77"/>
-      <c r="K27" s="82"/>
+      <c r="K27" s="80"/>
     </row>
     <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>21</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="94">
         <v>105</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="94">
         <v>27</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="F28" s="91">
+      <c r="F28" s="89">
         <f t="shared" si="1"/>
         <v>0.25714285714285712</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="90">
         <v>22.8</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="77"/>
-      <c r="K28" s="82"/>
+      <c r="K28" s="80"/>
     </row>
     <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="34">
         <v>22</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="36">
         <v>101</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="36">
         <v>36</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="37">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="F29" s="91">
+      <c r="F29" s="89">
         <f t="shared" si="1"/>
         <v>0.35643564356435642</v>
       </c>
-      <c r="G29" s="92">
+      <c r="G29" s="90">
         <v>17.899999999999999</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="77"/>
-      <c r="K29" s="82"/>
+      <c r="K29" s="80"/>
     </row>
     <row r="30" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A30" s="34">
@@ -2609,11 +2615,11 @@
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="F30" s="91">
+      <c r="F30" s="89">
         <f t="shared" si="1"/>
         <v>0.14960629921259844</v>
       </c>
-      <c r="G30" s="92">
+      <c r="G30" s="90">
         <v>14.7</v>
       </c>
       <c r="H30" s="37">
@@ -2626,7 +2632,7 @@
         <f t="shared" si="2"/>
         <v>1.1475409836065573</v>
       </c>
-      <c r="K30" s="88" t="s">
+      <c r="K30" s="86" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2647,11 +2653,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F31" s="91">
+      <c r="F31" s="89">
         <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G31" s="92">
+      <c r="G31" s="90">
         <v>99.3</v>
       </c>
       <c r="H31" s="37">
@@ -2664,7 +2670,7 @@
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="K31" s="84"/>
+      <c r="K31" s="82"/>
     </row>
     <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
@@ -2683,17 +2689,17 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F32" s="91">
+      <c r="F32" s="89">
         <f t="shared" si="1"/>
         <v>0.80327868852459017</v>
       </c>
-      <c r="G32" s="92">
+      <c r="G32" s="90">
         <v>77</v>
       </c>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
       <c r="J32" s="77"/>
-      <c r="K32" s="89" t="s">
+      <c r="K32" s="87" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2714,11 +2720,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F33" s="91">
+      <c r="F33" s="89">
         <f t="shared" si="1"/>
         <v>0.13793103448275862</v>
       </c>
-      <c r="G33" s="92">
+      <c r="G33" s="90">
         <v>13.8</v>
       </c>
       <c r="H33" s="37">
@@ -2731,7 +2737,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="88"/>
+      <c r="K33" s="86"/>
     </row>
     <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
@@ -2750,11 +2756,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F34" s="91">
+      <c r="F34" s="89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="92">
+      <c r="G34" s="90">
         <v>13.100000000000001</v>
       </c>
       <c r="H34" s="37">
@@ -2767,36 +2773,36 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K34" s="82"/>
+      <c r="K34" s="80"/>
     </row>
     <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>28</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="94">
         <v>234</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="94">
         <v>21</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="F35" s="91">
+      <c r="F35" s="89">
         <f t="shared" si="1"/>
         <v>8.9743589743589744E-2</v>
       </c>
-      <c r="G35" s="92">
+      <c r="G35" s="90">
         <v>4.1000000000000005</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="77"/>
-      <c r="K35" s="82"/>
+      <c r="K35" s="80"/>
     </row>
     <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="34">
@@ -2815,11 +2821,11 @@
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="F36" s="91">
+      <c r="F36" s="89">
         <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G36" s="92">
+      <c r="G36" s="90">
         <v>4.5</v>
       </c>
       <c r="H36" s="37">
@@ -2832,7 +2838,7 @@
         <f t="shared" si="2"/>
         <v>4.9295774647887321E-2</v>
       </c>
-      <c r="K36" s="89"/>
+      <c r="K36" s="87"/>
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="34">
@@ -2851,11 +2857,11 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F37" s="91">
+      <c r="F37" s="89">
         <f t="shared" si="1"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="G37" s="92">
+      <c r="G37" s="90">
         <v>52</v>
       </c>
       <c r="H37" s="37">
@@ -2868,7 +2874,7 @@
         <f t="shared" si="2"/>
         <v>1.3653846153846154</v>
       </c>
-      <c r="K37" s="82"/>
+      <c r="K37" s="80"/>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="34">
@@ -2887,11 +2893,11 @@
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="F38" s="91">
+      <c r="F38" s="89">
         <f t="shared" si="1"/>
         <v>0.25961538461538464</v>
       </c>
-      <c r="G38" s="92">
+      <c r="G38" s="90">
         <v>13.4</v>
       </c>
       <c r="H38" s="37">
@@ -2904,36 +2910,36 @@
         <f t="shared" si="2"/>
         <v>2.6</v>
       </c>
-      <c r="K38" s="84"/>
+      <c r="K38" s="82"/>
     </row>
     <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>32</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="94">
         <v>2</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="94">
         <v>1</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F39" s="91">
+      <c r="F39" s="89">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G39" s="92">
+      <c r="G39" s="90">
         <v>100</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="77"/>
-      <c r="K39" s="82"/>
+      <c r="K39" s="80"/>
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="34">
@@ -2952,17 +2958,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40" s="91">
+      <c r="F40" s="89">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G40" s="92">
+      <c r="G40" s="90">
         <v>307.39999999999998</v>
       </c>
       <c r="H40" s="37"/>
       <c r="I40" s="37"/>
       <c r="J40" s="77"/>
-      <c r="K40" s="84"/>
+      <c r="K40" s="82"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
@@ -2980,11 +2986,11 @@
         <f>SUM(E8:E40)</f>
         <v>3374</v>
       </c>
-      <c r="F41" s="91">
+      <c r="F41" s="89">
         <f t="shared" si="1"/>
         <v>0.2677951388888889</v>
       </c>
-      <c r="G41" s="91"/>
+      <c r="G41" s="89"/>
       <c r="H41" s="7">
         <f>SUM(H8:H40)</f>
         <v>1106</v>
@@ -2994,7 +3000,7 @@
         <v>538</v>
       </c>
       <c r="J41" s="7"/>
-      <c r="K41" s="90"/>
+      <c r="K41" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3034,18 +3040,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/2.Inventario/Seguimiento_IngresoDotacionesInventarioICBF.xlsx
+++ b/2.Inventario/Seguimiento_IngresoDotacionesInventarioICBF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\2.Inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218BDB73-6142-49CD-A147-E2EA19D05BBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264EEFCA-EF6A-4A11-80D2-A5CEECB7A3F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,9 +403,6 @@
     <t>De los contratos pendientes de ingreso, Cantidad de Contratos con Elementos Devolutivos</t>
   </si>
   <si>
-    <t>PORCENTAJE DE AVANCE Corte 22 febrero de 2019</t>
-  </si>
-  <si>
     <t>Se les brindó orientaciones adicionales para generar el reporte. Soporte en archivo Casanare_OrientacionReporteIngresoInventario.pdf  de la carpeta 1.AsistenciaTecnica</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
     <t>PORCENTAJE DE AVANCE 
 (por recursos)
 Corte 26 Noviembre de 2019</t>
+  </si>
+  <si>
+    <t>PORCENTAJE DE AVANCE Corte  Enero de 2019</t>
   </si>
 </sst>
 </file>
@@ -1009,16 +1009,16 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1843,16 +1843,16 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.2">
@@ -1872,10 +1872,10 @@
         <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>118</v>
@@ -1884,7 +1884,7 @@
         <v>74</v>
       </c>
       <c r="J7" s="78" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>91</v>
@@ -1894,13 +1894,13 @@
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="92">
         <v>8</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="92">
         <v>3</v>
       </c>
       <c r="E8" s="3">
@@ -1946,27 +1946,29 @@
         <v>33.6</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I9" s="37">
         <v>0</v>
       </c>
-      <c r="J9" s="77"/>
+      <c r="J9" s="89">
+        <v>0.74</v>
+      </c>
       <c r="K9" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="92">
         <v>44</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="92">
         <v>38</v>
       </c>
       <c r="E10" s="3">
@@ -2012,7 +2014,7 @@
         <v>5.4</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="37">
         <v>0</v>
@@ -2060,13 +2062,13 @@
       <c r="A13" s="9">
         <v>6</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="92">
         <v>316</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="92">
         <v>0</v>
       </c>
       <c r="E13" s="3">
@@ -2218,7 +2220,7 @@
       <c r="I17" s="70"/>
       <c r="J17" s="77"/>
       <c r="K17" s="84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -2256,20 +2258,20 @@
         <v>1.4285714285714285E-2</v>
       </c>
       <c r="K18" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>12</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="94">
+      <c r="C19" s="92">
         <v>214</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="92">
         <v>10</v>
       </c>
       <c r="E19" s="3">
@@ -2359,13 +2361,13 @@
       <c r="A22" s="9">
         <v>15</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="94">
+      <c r="C22" s="92">
         <v>250</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="92">
         <v>61</v>
       </c>
       <c r="E22" s="3">
@@ -2388,13 +2390,13 @@
       <c r="A23" s="9">
         <v>16</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="94">
+      <c r="C23" s="92">
         <v>5</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="92">
         <v>4</v>
       </c>
       <c r="E23" s="3">
@@ -2417,13 +2419,13 @@
       <c r="A24" s="9">
         <v>17</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="92">
         <v>68</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="92">
         <v>3</v>
       </c>
       <c r="E24" s="3">
@@ -2544,13 +2546,13 @@
       <c r="A28" s="9">
         <v>21</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="92">
         <v>105</v>
       </c>
-      <c r="D28" s="94">
+      <c r="D28" s="92">
         <v>27</v>
       </c>
       <c r="E28" s="3">
@@ -2779,13 +2781,13 @@
       <c r="A35" s="9">
         <v>28</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="94">
+      <c r="C35" s="92">
         <v>234</v>
       </c>
-      <c r="D35" s="94">
+      <c r="D35" s="92">
         <v>21</v>
       </c>
       <c r="E35" s="3">
@@ -2916,13 +2918,13 @@
       <c r="A39" s="9">
         <v>32</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="94">
+      <c r="C39" s="92">
         <v>2</v>
       </c>
-      <c r="D39" s="94">
+      <c r="D39" s="92">
         <v>1</v>
       </c>
       <c r="E39" s="3">
@@ -3040,18 +3042,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
